--- a/document/优惠券.xlsx
+++ b/document/优惠券.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12195"/>
+    <workbookView windowWidth="20730" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>name(优惠券名称)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF881391"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>amount(</t>
     </r>
     <r>
@@ -90,6 +96,12 @@
   </si>
   <si>
     <t>面额13元,使用门槛20元,发行30张</t>
+  </si>
+  <si>
+    <t>测试优惠券5</t>
+  </si>
+  <si>
+    <t>使用门槛为空</t>
   </si>
 </sst>
 </file>
@@ -117,9 +129,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,23 +154,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +170,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +191,67 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -189,75 +260,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,18 +288,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,19 +312,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,19 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,115 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,13 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +536,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -535,26 +560,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -1188,6 +1200,23 @@
       </c>
       <c r="F5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
